--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyotiprakash nayak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E681064C-D2B5-4E57-AFE2-E9D756DDEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15E21B-B497-4B12-B019-CE5EFEDD1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8061997E-F30F-4101-BD8B-0BC47F099751}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>Data Volume</t>
   </si>
@@ -99,13 +101,193 @@
   </si>
   <si>
     <t>Azure Data Factory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Azure Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi cloud Support </t>
+  </si>
+  <si>
+    <t>Supports AWS , AZURE and GCP</t>
+  </si>
+  <si>
+    <t>Supports Azure and AWS</t>
+  </si>
+  <si>
+    <t>BI Integration</t>
+  </si>
+  <si>
+    <t>SSRS and Tableau can be integrated via ODBC connector</t>
+  </si>
+  <si>
+    <t>SSRS  and Tableau has Inbuilt connector</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>Ability  to adapt to workload changes by allocating and de-allocating resources automatically [Auto Scaling/Multi Clustering]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability  to adapt to workload changes by allocating and de-allocating resources automatically </t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Supports built in encryption for both data in transit and rest. Dynamic data masking is available</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Usage-based pricing for compute and storage with two different pricing On Demand and Pre Purchase Capacity</t>
+  </si>
+  <si>
+    <t>Usage-based pricing for compute and storage</t>
+  </si>
+  <si>
+    <t>Loading Methods</t>
+  </si>
+  <si>
+    <t>Snow pipe for real-time ingestion and  Copy Command for Bulk loading with parallel processing of files.</t>
+  </si>
+  <si>
+    <t>PolyBase (recommended) and BCP or SQLBulkCopy API</t>
+  </si>
+  <si>
+    <t>Data Availability</t>
+  </si>
+  <si>
+    <t>Adhere to cloud provider as the data is replicated to 3 Availability zones in a region and provides data protection features which include Time Travel/Fail Safe/Data Replication.</t>
+  </si>
+  <si>
+    <t>guarantees 99.99% - 99.99%  uptime</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning Studio Integration</t>
+  </si>
+  <si>
+    <t>Azure ML can access only Structure data stored in Snowflake</t>
+  </si>
+  <si>
+    <t>Azure ML can access ADLS and Azure synapse</t>
+  </si>
+  <si>
+    <t>Interoperability with Azure Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowflake integrate seamlessly with many Azure services like Azure Databricks, </t>
+  </si>
+  <si>
+    <t>Azure Data Factory and Power BI.</t>
+  </si>
+  <si>
+    <t>Synapse integrate seamlessly with all Azure services like Azure Databricks, Azure ML, Azure Data Factory and Power BI. But it is well tailored for better performance</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowflake </t>
+  </si>
+  <si>
+    <t>Compute, Storage</t>
+  </si>
+  <si>
+    <t>Completely decoupled and allows scaling</t>
+  </si>
+  <si>
+    <t>Storage and compute are decoupled. Scale up/down and pause the compute can be done</t>
+  </si>
+  <si>
+    <t>Continuous Data Load</t>
+  </si>
+  <si>
+    <t>Supported using Kafka, Snowpipe (Near Real Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real time support using Event hub, Stream Analytics, Synapse link </t>
+  </si>
+  <si>
+    <t>Scaling Up/Out</t>
+  </si>
+  <si>
+    <t>Instant Scalability for Multi- Cluster DW.  Scale Up and Down doesn’t need any down time and has no impact on running queries</t>
+  </si>
+  <si>
+    <t>In flight Queries will be cancelled during the Pause / Scaling operations</t>
+  </si>
+  <si>
+    <t>Data Distribution</t>
+  </si>
+  <si>
+    <t>Data is automatically distributed in micro partitions. At table level clustering can be specified, Snowflake has provisions for auto clustering</t>
+  </si>
+  <si>
+    <t>Data distribution can be based on the key user specifies. Round-Robin and Hash-distribution are available</t>
+  </si>
+  <si>
+    <t>Performance Tuning</t>
+  </si>
+  <si>
+    <t>Automatic SQL optimization, no tuning required</t>
+  </si>
+  <si>
+    <t>Query workload management through workload classification, workload importance and Workload Isolation</t>
+  </si>
+  <si>
+    <t>Create / Update statistics</t>
+  </si>
+  <si>
+    <t>Federated Query with other DBs</t>
+  </si>
+  <si>
+    <t>Snowflake doesn’t have federated query capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federated query are supported in Azure synapse workspace through OPENROWSET </t>
+  </si>
+  <si>
+    <t>Data Sharing</t>
+  </si>
+  <si>
+    <t>Allows for data sharing to other Snowflake accounts</t>
+  </si>
+  <si>
+    <t>Data Sharing is supported using Azure Data share</t>
+  </si>
+  <si>
+    <t>Geo replication across cloud providers</t>
+  </si>
+  <si>
+    <t>Provides replication capabilities for moving data across geographical regions</t>
+  </si>
+  <si>
+    <t>Geo backup is available to Azure regions</t>
+  </si>
+  <si>
+    <t>Integration with  AI/ML Solutions</t>
+  </si>
+  <si>
+    <t>Integration with AI/ML tools is available</t>
+  </si>
+  <si>
+    <t>Integration with Azure Machine Learning is seamless for AI/ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +306,68 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C8C8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -170,11 +404,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000063"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000063"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000063"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000063"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000063"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -195,6 +516,88 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E28E1EA-9E8A-4A95-B824-C35C26CB578D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,95 +924,378 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B51D8-3530-499E-BB3E-EF39252C2779}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AFE049-5C7D-4508-9CB7-2D7F94766818}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="32" customFormat="1" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="240.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="301.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="331.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="300" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="240.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="135.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="181.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>